--- a/demo/net_demo3_stest1.xlsx
+++ b/demo/net_demo3_stest1.xlsx
@@ -9,22 +9,23 @@
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
     <sheet name="bus" sheetId="2" r:id="rId2"/>
-    <sheet name="ext_grid" sheetId="3" r:id="rId3"/>
-    <sheet name="line" sheetId="4" r:id="rId4"/>
-    <sheet name="measurement" sheetId="5" r:id="rId5"/>
-    <sheet name="line_std_types" sheetId="6" r:id="rId6"/>
-    <sheet name="trafo_std_types" sheetId="7" r:id="rId7"/>
-    <sheet name="trafo3w_std_types" sheetId="8" r:id="rId8"/>
-    <sheet name="res_bus_est" sheetId="9" r:id="rId9"/>
-    <sheet name="res_line_est" sheetId="10" r:id="rId10"/>
-    <sheet name="dtypes" sheetId="11" r:id="rId11"/>
+    <sheet name="sgen" sheetId="3" r:id="rId3"/>
+    <sheet name="ext_grid" sheetId="4" r:id="rId4"/>
+    <sheet name="line" sheetId="5" r:id="rId5"/>
+    <sheet name="measurement" sheetId="6" r:id="rId6"/>
+    <sheet name="line_std_types" sheetId="7" r:id="rId7"/>
+    <sheet name="trafo_std_types" sheetId="8" r:id="rId8"/>
+    <sheet name="trafo3w_std_types" sheetId="9" r:id="rId9"/>
+    <sheet name="res_bus_est" sheetId="10" r:id="rId10"/>
+    <sheet name="res_line_est" sheetId="11" r:id="rId11"/>
+    <sheet name="dtypes" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="190">
   <si>
     <t>version</t>
   </si>
@@ -71,6 +72,45 @@
     <t>bus</t>
   </si>
   <si>
+    <t>p_mw</t>
+  </si>
+  <si>
+    <t>q_mvar</t>
+  </si>
+  <si>
+    <t>scaling</t>
+  </si>
+  <si>
+    <t>current_source</t>
+  </si>
+  <si>
+    <t>min_p_mw</t>
+  </si>
+  <si>
+    <t>max_p_mw</t>
+  </si>
+  <si>
+    <t>min_q_mvar</t>
+  </si>
+  <si>
+    <t>max_q_mvar</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>controllable</t>
+  </si>
+  <si>
+    <t>Example static gen</t>
+  </si>
+  <si>
+    <t>wye</t>
+  </si>
+  <si>
     <t>vm_pu</t>
   </si>
   <si>
@@ -134,9 +174,6 @@
     <t>side</t>
   </si>
   <si>
-    <t>b1_v_pu</t>
-  </si>
-  <si>
     <t>b2_v_pu</t>
   </si>
   <si>
@@ -482,12 +519,6 @@
     <t>YN0yn0yn0</t>
   </si>
   <si>
-    <t>p_mw</t>
-  </si>
-  <si>
-    <t>q_mvar</t>
-  </si>
-  <si>
     <t>p_from_mw</t>
   </si>
   <si>
@@ -536,6 +567,9 @@
     <t>dtype</t>
   </si>
   <si>
+    <t>sgen</t>
+  </si>
+  <si>
     <t>ext_grid</t>
   </si>
   <si>
@@ -555,6 +589,9 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>int64</t>
   </si>
   <si>
     <t>uint32</t>
@@ -962,6 +999,84 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.9935586791254525</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-2.063847494733442</v>
+      </c>
+      <c r="E2">
+        <v>-1.225928010883204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.9679431262403847</v>
+      </c>
+      <c r="C3">
+        <v>-1.263234576715199</v>
+      </c>
+      <c r="D3">
+        <v>0.495800454113897</v>
+      </c>
+      <c r="E3">
+        <v>0.2972383492096295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.9375050206459024</v>
+      </c>
+      <c r="C4">
+        <v>-2.781372910858515</v>
+      </c>
+      <c r="D4">
+        <v>1.513581148681202</v>
+      </c>
+      <c r="E4">
+        <v>0.7858359155111834</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -970,46 +1085,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1017,46 +1132,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.892991989051415</v>
+        <v>0.8928922057150006</v>
       </c>
       <c r="C2">
-        <v>0.5588216892317074</v>
+        <v>0.558512167219824</v>
       </c>
       <c r="D2">
-        <v>-0.8818865923101408</v>
+        <v>-0.8816559965351517</v>
       </c>
       <c r="E2">
-        <v>-0.5255054990078852</v>
+        <v>-0.524803539680277</v>
       </c>
       <c r="F2">
-        <v>0.0111053967412742</v>
+        <v>0.01123620917984891</v>
       </c>
       <c r="G2">
-        <v>0.03331619022382215</v>
+        <v>0.03370862753954695</v>
       </c>
       <c r="H2">
-        <v>0.6084241048609124</v>
+        <v>0.6119969820145897</v>
       </c>
       <c r="I2">
-        <v>0.6084241048609123</v>
+        <v>0.6119969820145897</v>
       </c>
       <c r="J2">
-        <v>0.6084241048609124</v>
+        <v>0.6119969820145897</v>
       </c>
       <c r="K2">
-        <v>0.9996292550700842</v>
+        <v>0.9935586791254525</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9741560686723498</v>
+        <v>0.9679431262403847</v>
       </c>
       <c r="N2">
-        <v>-1.247546998932295</v>
+        <v>-1.263234576715199</v>
       </c>
       <c r="O2">
-        <v>60.84241048609124</v>
+        <v>61.19969820145897</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1064,46 +1179,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.171024464671665</v>
+        <v>1.170955289018439</v>
       </c>
       <c r="C3">
-        <v>0.6676187075486473</v>
+        <v>0.6674158436633763</v>
       </c>
       <c r="D3">
-        <v>-1.134657243033761</v>
+        <v>-1.134151076619576</v>
       </c>
       <c r="E3">
-        <v>-0.5767006534538867</v>
+        <v>-0.5754053126662199</v>
       </c>
       <c r="F3">
-        <v>0.03636722163790429</v>
+        <v>0.03680421239886256</v>
       </c>
       <c r="G3">
-        <v>0.09091805409476061</v>
+        <v>0.09201053099715639</v>
       </c>
       <c r="H3">
-        <v>0.7785373212837893</v>
+        <v>0.7832008299159565</v>
       </c>
       <c r="I3">
-        <v>0.7785373212837892</v>
+        <v>0.7832008299159565</v>
       </c>
       <c r="J3">
-        <v>0.7785373212837893</v>
+        <v>0.7832008299159565</v>
       </c>
       <c r="K3">
-        <v>0.9996292550700842</v>
+        <v>0.9935586791254525</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9438903778446608</v>
+        <v>0.9375050206459024</v>
       </c>
       <c r="N3">
-        <v>-2.745716737116682</v>
+        <v>-2.781372910858515</v>
       </c>
       <c r="O3">
-        <v>77.85373212837892</v>
+        <v>78.32008299159565</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1111,46 +1226,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3859116261668299</v>
+        <v>0.3858555424212559</v>
       </c>
       <c r="C4">
-        <v>0.2277559711693033</v>
+        <v>0.2275651904706458</v>
       </c>
       <c r="D4">
-        <v>-0.3795637403572401</v>
+        <v>-0.3794300720616264</v>
       </c>
       <c r="E4">
-        <v>-0.2108282756770636</v>
+        <v>-0.2104306028449668</v>
       </c>
       <c r="F4">
-        <v>0.006347885809589893</v>
+        <v>0.006425470359629537</v>
       </c>
       <c r="G4">
-        <v>0.01692769549223966</v>
+        <v>0.01713458762567896</v>
       </c>
       <c r="H4">
-        <v>0.2655787351257601</v>
+        <v>0.2671967722615595</v>
       </c>
       <c r="I4">
-        <v>0.2655787351257601</v>
+        <v>0.2671967722615595</v>
       </c>
       <c r="J4">
-        <v>0.2655787351257601</v>
+        <v>0.2671967722615595</v>
       </c>
       <c r="K4">
-        <v>0.9741560686723498</v>
+        <v>0.9679431262403847</v>
       </c>
       <c r="L4">
-        <v>-1.247546998932295</v>
+        <v>-1.263234576715199</v>
       </c>
       <c r="M4">
-        <v>0.9438903778446608</v>
+        <v>0.9375050206459024</v>
       </c>
       <c r="N4">
-        <v>-2.745716737116682</v>
+        <v>-2.781372910858515</v>
       </c>
       <c r="O4">
-        <v>26.55787351257601</v>
+        <v>26.71967722615595</v>
       </c>
     </row>
   </sheetData>
@@ -1158,9 +1273,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1168,13 +1283,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1188,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1202,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1216,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1230,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1244,7 +1359,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1252,13 +1367,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1266,13 +1381,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1280,13 +1395,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1294,13 +1409,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1308,13 +1423,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1322,13 +1437,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1336,13 +1451,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1350,13 +1465,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1364,13 +1479,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1378,13 +1493,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1392,13 +1507,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1406,13 +1521,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1420,13 +1535,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1434,13 +1549,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1448,13 +1563,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1462,13 +1577,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1476,13 +1591,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1490,13 +1605,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1504,13 +1619,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1518,13 +1633,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1532,13 +1647,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1546,13 +1661,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1560,13 +1675,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1574,13 +1689,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1588,13 +1703,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1602,13 +1717,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1616,13 +1731,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1630,13 +1745,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1644,13 +1759,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1658,13 +1773,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1672,13 +1787,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1686,13 +1801,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1700,13 +1815,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1714,13 +1829,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1728,13 +1843,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1742,13 +1857,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1756,13 +1871,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1770,13 +1885,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1784,13 +1899,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1798,13 +1913,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1812,13 +1927,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1826,13 +1941,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1840,13 +1955,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1854,13 +1969,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1868,13 +1983,237 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
         <v>173</v>
       </c>
-      <c r="C51" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="D63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" t="s">
         <v>175</v>
+      </c>
+      <c r="D65" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1965,6 +2304,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1.1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1979,13 +2410,13 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -1996,7 +2427,7 @@
         <v>10000</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2019,7 +2450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -2032,37 +2463,37 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -2190,9 +2621,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2203,42 +2634,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1.006</v>
+        <v>0.968</v>
       </c>
       <c r="G2">
         <v>0.004</v>
@@ -2246,13 +2677,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -2261,21 +2692,21 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0.968</v>
+        <v>0.501</v>
       </c>
       <c r="G3">
-        <v>0.004</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -2284,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0.501</v>
+        <v>0.286</v>
       </c>
       <c r="G4">
         <v>0.01</v>
@@ -2292,45 +2723,48 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.286</v>
+        <v>0.888</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0.008</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.888</v>
+        <v>1.173</v>
       </c>
       <c r="G6">
         <v>0.008</v>
@@ -2341,22 +2775,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.173</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="G7">
         <v>0.008</v>
@@ -2367,22 +2801,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.5679999999999999</v>
+        <v>0.663</v>
       </c>
       <c r="G8">
         <v>0.008</v>
@@ -2393,53 +2827,27 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.663</v>
       </c>
       <c r="G9">
         <v>0.008</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.008</v>
-      </c>
-      <c r="H10">
         <v>3</v>
       </c>
     </row>
@@ -2448,7 +2856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H52"/>
   <sheetViews>
@@ -2458,30 +2866,30 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>210</v>
@@ -2496,7 +2904,7 @@
         <v>0.142</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -2507,7 +2915,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>264</v>
@@ -2522,7 +2930,7 @@
         <v>0.242</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G3">
         <v>120</v>
@@ -2533,7 +2941,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>261</v>
@@ -2548,7 +2956,7 @@
         <v>0.27</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G4">
         <v>150</v>
@@ -2559,7 +2967,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>216</v>
@@ -2574,7 +2982,7 @@
         <v>0.252</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G5">
         <v>95</v>
@@ -2585,7 +2993,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>273</v>
@@ -2600,7 +3008,7 @@
         <v>0.362</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G6">
         <v>185</v>
@@ -2611,7 +3019,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>304</v>
@@ -2626,7 +3034,7 @@
         <v>0.421</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G7">
         <v>240</v>
@@ -2637,7 +3045,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>315</v>
@@ -2652,7 +3060,7 @@
         <v>0.249</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G8">
         <v>95</v>
@@ -2663,7 +3071,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>406</v>
@@ -2678,7 +3086,7 @@
         <v>0.358</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G9">
         <v>185</v>
@@ -2689,7 +3097,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>456</v>
@@ -2704,7 +3112,7 @@
         <v>0.416</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G10">
         <v>240</v>
@@ -2715,7 +3123,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>250</v>
@@ -2730,7 +3138,7 @@
         <v>0.319</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G11">
         <v>150</v>
@@ -2741,7 +3149,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>230</v>
@@ -2756,7 +3164,7 @@
         <v>0.283</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G12">
         <v>120</v>
@@ -2767,7 +3175,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>190</v>
@@ -2782,7 +3190,7 @@
         <v>0.22</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G13">
         <v>70</v>
@@ -2793,7 +3201,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>360</v>
@@ -2808,7 +3216,7 @@
         <v>0.315</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G14">
         <v>150</v>
@@ -2819,7 +3227,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>340</v>
@@ -2834,7 +3242,7 @@
         <v>0.28</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G15">
         <v>120</v>
@@ -2845,7 +3253,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <v>280</v>
@@ -2860,7 +3268,7 @@
         <v>0.217</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G16">
         <v>70</v>
@@ -2871,7 +3279,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <v>112</v>
@@ -2886,7 +3294,7 @@
         <v>0.366</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G17">
         <v>120</v>
@@ -2897,7 +3305,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B18">
         <v>125</v>
@@ -2912,7 +3320,7 @@
         <v>0.457</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G18">
         <v>185</v>
@@ -2923,7 +3331,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>135</v>
@@ -2938,7 +3346,7 @@
         <v>0.526</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G19">
         <v>240</v>
@@ -2949,7 +3357,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B20">
         <v>144</v>
@@ -2964,7 +3372,7 @@
         <v>0.588</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G20">
         <v>300</v>
@@ -2975,7 +3383,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -2990,7 +3398,7 @@
         <v>0.105</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -3001,7 +3409,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B22">
         <v>11.25</v>
@@ -3016,7 +3424,7 @@
         <v>0.14</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G22">
         <v>24</v>
@@ -3027,7 +3435,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>12.2</v>
@@ -3042,7 +3450,7 @@
         <v>0.21</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G23">
         <v>48</v>
@@ -3053,7 +3461,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B24">
         <v>13.2</v>
@@ -3068,7 +3476,7 @@
         <v>0.35</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G24">
         <v>94</v>
@@ -3079,7 +3487,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B25">
         <v>9.699999999999999</v>
@@ -3094,7 +3502,7 @@
         <v>0.17</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G25">
         <v>34</v>
@@ -3105,7 +3513,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B26">
         <v>10.1</v>
@@ -3120,7 +3528,7 @@
         <v>0.21</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G26">
         <v>48</v>
@@ -3131,7 +3539,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B27">
         <v>10.4</v>
@@ -3146,7 +3554,7 @@
         <v>0.29</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G27">
         <v>70</v>
@@ -3157,7 +3565,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B28">
         <v>10.75</v>
@@ -3172,7 +3580,7 @@
         <v>0.35</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G28">
         <v>94</v>
@@ -3183,7 +3591,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B29">
         <v>11.1</v>
@@ -3198,7 +3606,7 @@
         <v>0.41</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G29">
         <v>122</v>
@@ -3209,7 +3617,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B30">
         <v>11.25</v>
@@ -3224,7 +3632,7 @@
         <v>0.47</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G30">
         <v>149</v>
@@ -3235,7 +3643,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B31">
         <v>9.15</v>
@@ -3250,7 +3658,7 @@
         <v>0.17</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G31">
         <v>34</v>
@@ -3261,7 +3669,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B32">
         <v>9.5</v>
@@ -3276,7 +3684,7 @@
         <v>0.21</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G32">
         <v>48</v>
@@ -3287,7 +3695,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B33">
         <v>9.699999999999999</v>
@@ -3302,7 +3710,7 @@
         <v>0.29</v>
       </c>
       <c r="F33" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G33">
         <v>70</v>
@@ -3313,7 +3721,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -3328,7 +3736,7 @@
         <v>0.35</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G34">
         <v>94</v>
@@ -3339,7 +3747,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B35">
         <v>10.3</v>
@@ -3354,7 +3762,7 @@
         <v>0.41</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G35">
         <v>122</v>
@@ -3365,7 +3773,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B36">
         <v>10.5</v>
@@ -3380,7 +3788,7 @@
         <v>0.47</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G36">
         <v>149</v>
@@ -3391,7 +3799,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B37">
         <v>10.75</v>
@@ -3406,7 +3814,7 @@
         <v>0.535</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G37">
         <v>184</v>
@@ -3417,7 +3825,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B38">
         <v>11</v>
@@ -3432,7 +3840,7 @@
         <v>0.645</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G38">
         <v>243</v>
@@ -3443,7 +3851,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -3458,7 +3866,7 @@
         <v>0.21</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G39">
         <v>48</v>
@@ -3469,7 +3877,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>8.4</v>
@@ -3484,7 +3892,7 @@
         <v>0.29</v>
       </c>
       <c r="F40" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G40">
         <v>70</v>
@@ -3495,7 +3903,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B41">
         <v>8.65</v>
@@ -3510,7 +3918,7 @@
         <v>0.35</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G41">
         <v>94</v>
@@ -3521,7 +3929,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B42">
         <v>8.5</v>
@@ -3536,7 +3944,7 @@
         <v>0.41</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G42">
         <v>122</v>
@@ -3547,7 +3955,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B43">
         <v>8.75</v>
@@ -3562,7 +3970,7 @@
         <v>0.47</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G43">
         <v>149</v>
@@ -3573,7 +3981,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B44">
         <v>8.800000000000001</v>
@@ -3588,7 +3996,7 @@
         <v>0.535</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G44">
         <v>184</v>
@@ -3599,7 +4007,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -3614,7 +4022,7 @@
         <v>0.645</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G45">
         <v>243</v>
@@ -3625,7 +4033,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B46">
         <v>9.199999999999999</v>
@@ -3640,7 +4048,7 @@
         <v>0.74</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G46">
         <v>305</v>
@@ -3651,7 +4059,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B47">
         <v>9.75</v>
@@ -3666,7 +4074,7 @@
         <v>0.96</v>
       </c>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G47">
         <v>490</v>
@@ -3677,7 +4085,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B48">
         <v>9.949999999999999</v>
@@ -3692,7 +4100,7 @@
         <v>1.15</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G48">
         <v>679</v>
@@ -3703,7 +4111,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -3718,7 +4126,7 @@
         <v>0.96</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G49">
         <v>490</v>
@@ -3729,7 +4137,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B50">
         <v>11.7</v>
@@ -3744,7 +4152,7 @@
         <v>1.15</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G50">
         <v>679</v>
@@ -3755,7 +4163,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -3770,7 +4178,7 @@
         <v>0.96</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G51">
         <v>490</v>
@@ -3781,7 +4189,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B52">
         <v>14.6</v>
@@ -3796,7 +4204,7 @@
         <v>1.15</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G52">
         <v>679</v>
@@ -3810,7 +4218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q15"/>
   <sheetViews>
@@ -3820,57 +4228,57 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>0.06</v>
@@ -3897,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3923,7 +4331,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B3">
         <v>0.06</v>
@@ -3950,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3976,7 +4384,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>0.04</v>
@@ -4003,10 +4411,10 @@
         <v>150</v>
       </c>
       <c r="J4" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -4029,7 +4437,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B5">
         <v>0.05</v>
@@ -4056,10 +4464,10 @@
         <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K5" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4082,7 +4490,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>0.07000000000000001</v>
@@ -4109,10 +4517,10 @@
         <v>150</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -4135,7 +4543,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B7">
         <v>0.04</v>
@@ -4162,10 +4570,10 @@
         <v>150</v>
       </c>
       <c r="J7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -4188,7 +4596,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>0.05</v>
@@ -4215,10 +4623,10 @@
         <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K8" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4241,7 +4649,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B9">
         <v>0.07000000000000001</v>
@@ -4268,10 +4676,10 @@
         <v>150</v>
       </c>
       <c r="J9" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K9" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4294,7 +4702,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B10">
         <v>0.32</v>
@@ -4321,10 +4729,10 @@
         <v>150</v>
       </c>
       <c r="J10" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4347,7 +4755,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B11">
         <v>0.3375</v>
@@ -4374,10 +4782,10 @@
         <v>150</v>
       </c>
       <c r="J11" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K11" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4400,7 +4808,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B12">
         <v>0.2619</v>
@@ -4427,10 +4835,10 @@
         <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4453,7 +4861,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B13">
         <v>0.24</v>
@@ -4480,10 +4888,10 @@
         <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -4506,7 +4914,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B14">
         <v>0.2375</v>
@@ -4533,10 +4941,10 @@
         <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -4559,7 +4967,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B15">
         <v>0.1873</v>
@@ -4586,10 +4994,10 @@
         <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -4615,7 +5023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W3"/>
   <sheetViews>
@@ -4625,75 +5033,75 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B2">
         <v>63</v>
@@ -4744,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="S2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4764,7 +5172,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -4815,10 +5223,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="S3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4831,84 +5239,6 @@
       </c>
       <c r="W3">
         <v>1.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.9996292550700842</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>-2.064016453723081</v>
-      </c>
-      <c r="E2">
-        <v>-1.226440396780355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.9741560686723498</v>
-      </c>
-      <c r="C3">
-        <v>-1.247546998932295</v>
-      </c>
-      <c r="D3">
-        <v>0.4959749661433118</v>
-      </c>
-      <c r="E3">
-        <v>0.2977495278385836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.9438903778446608</v>
-      </c>
-      <c r="C4">
-        <v>-2.745716737116682</v>
-      </c>
-      <c r="D4">
-        <v>1.514220983391002</v>
-      </c>
-      <c r="E4">
-        <v>0.7875289291309485</v>
       </c>
     </row>
   </sheetData>
